--- a/gameData/shared/HouseLevelUp.xlsx
+++ b/gameData/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,7 +620,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="352">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -796,6 +798,7 @@
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -966,6 +969,7 @@
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1418,7 +1422,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1484,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2760,7 +2764,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2826,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4131,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5479,7 +5483,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I49"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5545,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6815,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6882,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/gameData/shared/HouseLevelUp.xlsx
+++ b/gameData/shared/HouseLevelUp.xlsx
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="352">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,7 +622,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="352">
+  <cellStyles count="354">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -799,6 +801,7 @@
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -970,6 +973,7 @@
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2830,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4202,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5483,7 +5487,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6819,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6886,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
